--- a/server/config/excel/随机名.xlsx
+++ b/server/config/excel/随机名.xlsx
@@ -28,7 +28,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>str</t>
+    <t>string</t>
   </si>
   <si>
     <t>id</t>
@@ -1137,7 +1137,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:K2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>

--- a/server/config/excel/随机名.xlsx
+++ b/server/config/excel/随机名.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -40,64 +40,244 @@
     <t>name2</t>
   </si>
   <si>
-    <t>张</t>
-  </si>
-  <si>
-    <t>宇航</t>
-  </si>
-  <si>
-    <t>王</t>
-  </si>
-  <si>
-    <t>晨阳</t>
-  </si>
-  <si>
-    <t>李</t>
-  </si>
-  <si>
-    <t>浩然</t>
-  </si>
-  <si>
-    <t>陈</t>
-  </si>
-  <si>
-    <t>彤彤</t>
-  </si>
-  <si>
-    <t>刘</t>
-  </si>
-  <si>
-    <t>雨欣</t>
-  </si>
-  <si>
-    <t>黄</t>
-  </si>
-  <si>
-    <t>心怡</t>
-  </si>
-  <si>
-    <t>杨</t>
-  </si>
-  <si>
-    <t>睿智</t>
-  </si>
-  <si>
-    <t>赵</t>
-  </si>
-  <si>
-    <t>芷若</t>
-  </si>
-  <si>
-    <t>周</t>
-  </si>
-  <si>
-    <t>梓涵</t>
-  </si>
-  <si>
-    <t>吴</t>
-  </si>
-  <si>
-    <t>家豪</t>
+    <t>美丽的</t>
+  </si>
+  <si>
+    <t>狮子</t>
+  </si>
+  <si>
+    <t>快乐的</t>
+  </si>
+  <si>
+    <t>蝴蝶</t>
+  </si>
+  <si>
+    <t>聪明的</t>
+  </si>
+  <si>
+    <t>大象</t>
+  </si>
+  <si>
+    <t>幽默的</t>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+  </si>
+  <si>
+    <t>惊人的</t>
+  </si>
+  <si>
+    <t>猎豹</t>
+  </si>
+  <si>
+    <t>温暖的</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>活力四溢的</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>安静的</t>
+  </si>
+  <si>
+    <t>鸟</t>
+  </si>
+  <si>
+    <t>精确的</t>
+  </si>
+  <si>
+    <t>老虎</t>
+  </si>
+  <si>
+    <t>独特的</t>
+  </si>
+  <si>
+    <t>熊</t>
+  </si>
+  <si>
+    <t>强大的</t>
+  </si>
+  <si>
+    <t>鹿</t>
+  </si>
+  <si>
+    <t>充满活力的</t>
+  </si>
+  <si>
+    <t>猴子</t>
+  </si>
+  <si>
+    <t>神秘的</t>
+  </si>
+  <si>
+    <t>鲸鱼</t>
+  </si>
+  <si>
+    <t>和谐的</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>激动人心的</t>
+  </si>
+  <si>
+    <t>羊</t>
+  </si>
+  <si>
+    <t>优雅的</t>
+  </si>
+  <si>
+    <t>孔雀</t>
+  </si>
+  <si>
+    <t>平静的</t>
+  </si>
+  <si>
+    <t>企鹅</t>
+  </si>
+  <si>
+    <t>热情的</t>
+  </si>
+  <si>
+    <t>熊猫</t>
+  </si>
+  <si>
+    <t>勇敢的</t>
+  </si>
+  <si>
+    <t>蛇</t>
+  </si>
+  <si>
+    <t>多才多艺的</t>
+  </si>
+  <si>
+    <t>猪</t>
+  </si>
+  <si>
+    <t>创新的</t>
+  </si>
+  <si>
+    <t>爱因斯坦</t>
+  </si>
+  <si>
+    <t>深情的</t>
+  </si>
+  <si>
+    <t>莎士比亚</t>
+  </si>
+  <si>
+    <t>独立的</t>
+  </si>
+  <si>
+    <t>马克思</t>
+  </si>
+  <si>
+    <t>真诚的</t>
+  </si>
+  <si>
+    <t>爱迪生</t>
+  </si>
+  <si>
+    <t>善良的</t>
+  </si>
+  <si>
+    <t>爱丽丝</t>
+  </si>
+  <si>
+    <t>精力充沛的</t>
+  </si>
+  <si>
+    <t>汤姆</t>
+  </si>
+  <si>
+    <t>热情洋溢的</t>
+  </si>
+  <si>
+    <t>哈利波特</t>
+  </si>
+  <si>
+    <t>慷慨的</t>
+  </si>
+  <si>
+    <t>卡夫卡</t>
+  </si>
+  <si>
+    <t>平衡的</t>
+  </si>
+  <si>
+    <t>贝多芬</t>
+  </si>
+  <si>
+    <t>弹性的</t>
+  </si>
+  <si>
+    <t>爱米莉亚</t>
+  </si>
+  <si>
+    <t>适应性强的</t>
+  </si>
+  <si>
+    <t>华盛顿</t>
+  </si>
+  <si>
+    <t>坚定的</t>
+  </si>
+  <si>
+    <t>甘地</t>
+  </si>
+  <si>
+    <t>细致的</t>
+  </si>
+  <si>
+    <t>曼德拉</t>
+  </si>
+  <si>
+    <t>睿智的</t>
+  </si>
+  <si>
+    <t>爱德华</t>
+  </si>
+  <si>
+    <t>冒险的</t>
+  </si>
+  <si>
+    <t>安妮</t>
+  </si>
+  <si>
+    <t>喜悦的</t>
+  </si>
+  <si>
+    <t>罗斯福</t>
+  </si>
+  <si>
+    <t>勤奋的</t>
+  </si>
+  <si>
+    <t>罗密欧</t>
+  </si>
+  <si>
+    <t>深思熟虑的</t>
+  </si>
+  <si>
+    <t>朱丽叶</t>
+  </si>
+  <si>
+    <t>内外兼修的</t>
+  </si>
+  <si>
+    <t>阿基里斯</t>
+  </si>
+  <si>
+    <t>乐观的</t>
+  </si>
+  <si>
+    <t>凯瑟琳</t>
   </si>
 </sst>
 </file>
@@ -141,6 +321,7 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1130,19 +1311,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="2" width="7.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="1" customWidth="1"/>
@@ -1399,10 +1581,16 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+    <row r="14" ht="14.25" spans="1:11">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1412,10 +1600,16 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+    <row r="15" ht="14.25" spans="1:11">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1425,10 +1619,16 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+    <row r="16" ht="14.25" spans="1:11">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1438,10 +1638,16 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+    <row r="17" ht="14.25" spans="1:11">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1451,10 +1657,16 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+    <row r="18" ht="14.25" spans="1:11">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1464,10 +1676,16 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+    <row r="19" ht="14.25" spans="1:11">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1477,10 +1695,16 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+    <row r="20" ht="14.25" spans="1:11">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1490,10 +1714,16 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+    <row r="21" ht="14.25" spans="1:11">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1503,10 +1733,16 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+    <row r="22" ht="14.25" spans="1:11">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1516,9 +1752,238 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="24" spans="9:10">
+    <row r="23" ht="14.25" spans="1:3">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:10">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="6"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:3">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:3">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:3">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:3">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:3">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:3">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:3">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:3">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:3">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:3">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:3">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:3">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:3">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:3">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:3">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:3">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:3">
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:3">
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:3">
+      <c r="A43" s="4">
+        <v>40</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
